--- a/data/king-tekken-8-frame-data.xlsx
+++ b/data/king-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-2s</t>
-        </is>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -560,15 +552,11 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -594,15 +582,11 @@
       <c r="D5" t="n">
         <v>22</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-13/-18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+12a(+3)/-9</t>
-        </is>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -628,15 +612,11 @@
       <c r="D6" t="n">
         <v>24</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+5s</t>
-        </is>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -667,10 +647,8 @@
         <v>26</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -697,10 +675,8 @@
         <v>28</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -727,10 +703,8 @@
         <v>30</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -756,15 +730,11 @@
       <c r="D10" t="n">
         <v>24</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+12a(+3)</t>
-        </is>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -791,10 +761,8 @@
         <v>27</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -821,10 +789,8 @@
         <v>12</v>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -850,15 +816,11 @@
       <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -880,15 +842,11 @@
       <c r="D14" t="n">
         <v>23</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -914,15 +872,11 @@
       <c r="D15" t="n">
         <v>16</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+2c</t>
-        </is>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -949,10 +903,8 @@
         <v>12</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -978,15 +930,11 @@
       <c r="D17" t="n">
         <v>17</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+17a</t>
-        </is>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -1032,15 +980,11 @@
       <c r="D19" t="n">
         <v>13</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1069,10 +1013,8 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1098,15 +1040,11 @@
       <c r="D21" t="n">
         <v>12</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1137,10 +1075,8 @@
         <v>12</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+14g / -2</t>
-        </is>
+      <c r="F22" t="n">
+        <v>14</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1166,15 +1102,11 @@
       <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1205,10 +1137,8 @@
         <v>12</v>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+11g / -6</t>
-        </is>
+      <c r="F24" t="n">
+        <v>11</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1234,15 +1164,11 @@
       <c r="D25" t="n">
         <v>26</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1272,15 +1198,11 @@
       <c r="D26" t="n">
         <v>14</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1302,15 +1224,11 @@
       <c r="D27" t="n">
         <v>20</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+19a(+10)</t>
-        </is>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -1336,15 +1254,11 @@
       <c r="D28" t="n">
         <v>24</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>+2c</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+22d</t>
-        </is>
+      <c r="E28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1370,15 +1284,11 @@
       <c r="D29" t="n">
         <v>21</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+10s/+0</t>
-        </is>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1404,15 +1314,11 @@
       <c r="D30" t="n">
         <v>16</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-10/-5</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+39d</t>
-        </is>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>39</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -1437,10 +1343,8 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0d</t>
-        </is>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1486,15 +1390,11 @@
       <c r="D33" t="n">
         <v>17</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+14g</t>
-        </is>
+      <c r="E33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1519,10 +1419,8 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0d</t>
-        </is>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1547,10 +1445,8 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-1d</t>
-        </is>
+      <c r="F35" t="n">
+        <v>-1</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -1577,10 +1473,8 @@
         <v>26</v>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+2d</t>
-        </is>
+      <c r="F36" t="n">
+        <v>2</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
@@ -1607,10 +1501,8 @@
         <v>41</v>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+6d</t>
-        </is>
+      <c r="F37" t="n">
+        <v>6</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1636,15 +1528,11 @@
       <c r="D38" t="n">
         <v>13</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+9s</t>
-        </is>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1673,10 +1561,8 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0d</t>
-        </is>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1702,15 +1588,11 @@
       <c r="D40" t="n">
         <v>22</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-2d</t>
-        </is>
+      <c r="E40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1740,15 +1622,11 @@
       <c r="D41" t="n">
         <v>20</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+16d</t>
-        </is>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1778,15 +1656,11 @@
       <c r="D42" t="n">
         <v>15</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+49a(+18)</t>
-        </is>
+      <c r="E42" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>49</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1816,15 +1690,11 @@
       <c r="D43" t="n">
         <v>10</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1850,15 +1720,11 @@
       <c r="D44" t="n">
         <v>23</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+45a(+35)</t>
-        </is>
+      <c r="E44" t="n">
+        <v>24</v>
+      </c>
+      <c r="F44" t="n">
+        <v>45</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1884,15 +1750,11 @@
       <c r="D45" t="n">
         <v>10</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+5s</t>
-        </is>
+      <c r="E45" t="n">
+        <v>11</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1919,10 +1781,8 @@
         <v>12</v>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -1948,15 +1808,11 @@
       <c r="D47" t="n">
         <v>11</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -1982,15 +1838,11 @@
       <c r="D48" t="n">
         <v>30</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+0c</t>
-        </is>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -2016,15 +1868,11 @@
       <c r="D49" t="n">
         <v>17</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E49" t="n">
+        <v>12</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2050,15 +1898,11 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E50" t="n">
+        <v>25</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -2084,15 +1928,11 @@
       <c r="D51" t="n">
         <v>29</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E51" t="n">
+        <v>25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-9</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
@@ -2118,15 +1958,11 @@
       <c r="D52" t="n">
         <v>29</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-29</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E52" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2152,15 +1988,11 @@
       <c r="D53" t="n">
         <v>28</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+16d(+6)</t>
-        </is>
+      <c r="E53" t="n">
+        <v>15</v>
+      </c>
+      <c r="F53" t="n">
+        <v>16</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2186,15 +2018,11 @@
       <c r="D54" t="n">
         <v>14</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2242,15 +2070,11 @@
       <c r="D56" t="n">
         <v>15</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-9/-5</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+35g/+8g</t>
-        </is>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>35</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2296,15 +2120,11 @@
       <c r="D58" t="n">
         <v>25</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-5c</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+19a</t>
-        </is>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>19</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2331,10 +2151,8 @@
         <v>12</v>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+1d / 0d</t>
-        </is>
+      <c r="F59" t="n">
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2360,15 +2178,11 @@
       <c r="D60" t="n">
         <v>23</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+4c</t>
-        </is>
+      <c r="E60" t="n">
+        <v>14</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2398,15 +2212,11 @@
       <c r="D61" t="n">
         <v>29</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-3d</t>
-        </is>
+      <c r="E61" t="n">
+        <v>17</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2437,10 +2247,8 @@
         <v>11</v>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1d</t>
-        </is>
+      <c r="F62" t="n">
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2466,15 +2274,11 @@
       <c r="D63" t="n">
         <v>14</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+3s</t>
-        </is>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2500,15 +2304,11 @@
       <c r="D64" t="n">
         <v>20</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+5s</t>
-        </is>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -2556,15 +2356,11 @@
       <c r="D66" t="n">
         <v>13</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+4s</t>
-        </is>
+      <c r="E66" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2590,15 +2386,11 @@
       <c r="D67" t="n">
         <v>20</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+24d</t>
-        </is>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>24</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2625,10 +2417,8 @@
         <v>12</v>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2654,15 +2444,11 @@
       <c r="D69" t="n">
         <v>14</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+6s</t>
-        </is>
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2688,15 +2474,11 @@
       <c r="D70" t="n">
         <v>28</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-12~-18</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+18d/-7~0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>18</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2722,15 +2504,11 @@
       <c r="D71" t="n">
         <v>30</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+28d</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>28</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2756,15 +2534,11 @@
       <c r="D72" t="n">
         <v>14</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E72" t="n">
+        <v>14</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
@@ -2790,15 +2564,11 @@
       <c r="D73" t="n">
         <v>22</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2824,15 +2594,11 @@
       <c r="D74" t="n">
         <v>28</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-15/-8</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+6a/+13a</t>
-        </is>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2862,15 +2628,11 @@
       <c r="D75" t="n">
         <v>33</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-8d</t>
-        </is>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-8</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2900,15 +2662,11 @@
       <c r="D76" t="n">
         <v>16</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+10d</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -2930,15 +2688,11 @@
       <c r="D77" t="n">
         <v>17</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+7s</t>
-        </is>
+      <c r="E77" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -2964,15 +2718,11 @@
       <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+2s</t>
-        </is>
+      <c r="E78" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -2998,15 +2748,11 @@
       <c r="D79" t="n">
         <v>15</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+17g/+16d</t>
-        </is>
+      <c r="E79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>17</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -3032,15 +2778,11 @@
       <c r="D80" t="n">
         <v>20</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+17g/+9d</t>
-        </is>
+      <c r="E80" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -3066,15 +2808,11 @@
       <c r="D81" t="n">
         <v>22</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-13c</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+2c</t>
-        </is>
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3100,15 +2838,11 @@
       <c r="D82" t="n">
         <v>22</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+27a(+17)</t>
-        </is>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3134,15 +2868,11 @@
       <c r="D83" t="n">
         <v>15</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E83" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3171,10 +2901,8 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F84" t="n">
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -3220,15 +2948,11 @@
       <c r="D86" t="n">
         <v>18</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+12a(+3)</t>
-        </is>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3255,10 +2979,8 @@
         <v>26</v>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F87" t="n">
+        <v>3</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3280,15 +3002,11 @@
       <c r="D88" t="n">
         <v>18</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-6</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3314,15 +3032,11 @@
       <c r="D89" t="n">
         <v>32</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+73a(+57)</t>
-        </is>
+      <c r="E89" t="n">
+        <v>12</v>
+      </c>
+      <c r="F89" t="n">
+        <v>73</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3348,15 +3062,11 @@
       <c r="D90" t="n">
         <v>15</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+56d</t>
-        </is>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>56</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -3382,15 +3092,11 @@
       <c r="D91" t="n">
         <v>20</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+14g</t>
-        </is>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3420,15 +3126,11 @@
       <c r="D92" t="n">
         <v>31</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0c</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+12c</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3454,15 +3156,11 @@
       <c r="D93" t="n">
         <v>21</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-16c~+2c</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-19c~+3c/-5d</t>
-        </is>
+      <c r="E93" t="n">
+        <v>16</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-19</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3488,15 +3186,11 @@
       <c r="D94" t="n">
         <v>28</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0/+2c</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+24d(-34)</t>
-        </is>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>24</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3522,15 +3216,11 @@
       <c r="D95" t="n">
         <v>15</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+14a(+4)</t>
-        </is>
+      <c r="E95" t="n">
+        <v>15</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3561,10 +3251,8 @@
         <v>10</v>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F96" t="n">
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3590,15 +3278,11 @@
       <c r="D97" t="n">
         <v>20</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+30(+22)</t>
-        </is>
+      <c r="E97" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>30</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3624,15 +3308,11 @@
       <c r="D98" t="n">
         <v>28</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+32d(-26)</t>
-        </is>
+      <c r="E98" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F98" t="n">
+        <v>32</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3658,15 +3338,11 @@
       <c r="D99" t="n">
         <v>9</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+7s</t>
-        </is>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3696,15 +3372,11 @@
       <c r="D100" t="n">
         <v>18</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+7s/(0d)</t>
-        </is>
+      <c r="E100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3731,10 +3403,8 @@
         <v>10</v>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-22d(-50)</t>
-        </is>
+      <c r="F101" t="n">
+        <v>-22</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3759,10 +3429,8 @@
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F102" t="n">
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3808,15 +3476,11 @@
       <c r="D104" t="n">
         <v>17</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="E104" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
@@ -3842,15 +3506,11 @@
       <c r="D105" t="n">
         <v>16</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+39d/+75a(+59)</t>
-        </is>
+      <c r="E105" t="n">
+        <v>8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>39</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3877,10 +3537,8 @@
         <v>23</v>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F106" t="n">
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3906,15 +3564,11 @@
       <c r="D107" t="n">
         <v>18</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>+3/+6/+18c</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+4d</t>
-        </is>
+      <c r="E107" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3940,15 +3594,11 @@
       <c r="D108" t="n">
         <v>21</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-16c~+2c</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-19c~+3c/-5d</t>
-        </is>
+      <c r="E108" t="n">
+        <v>16</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-19</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -3974,15 +3624,11 @@
       <c r="D109" t="n">
         <v>22</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+11d(+1)</t>
-        </is>
+      <c r="E109" t="n">
+        <v>9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -4008,15 +3654,11 @@
       <c r="D110" t="n">
         <v>20</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+0c</t>
-        </is>
+      <c r="E110" t="n">
+        <v>21</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -4042,15 +3684,11 @@
       <c r="D111" t="n">
         <v>17</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-7/-1</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+47d/+53d</t>
-        </is>
+      <c r="E111" t="n">
+        <v>7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>47</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -4076,15 +3714,11 @@
       <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-9/-2/0c</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+12c</t>
-        </is>
+      <c r="E112" t="n">
+        <v>9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -4110,15 +3744,11 @@
       <c r="D113" t="n">
         <v>22</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-5/-1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+21a(+12)/+25a(+16)</t>
-        </is>
+      <c r="E113" t="n">
+        <v>5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
@@ -4144,15 +3774,11 @@
       <c r="D114" t="n">
         <v>21</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-16c~+2c</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>-19c~+3c/-5d</t>
-        </is>
+      <c r="E114" t="n">
+        <v>16</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-19</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4178,15 +3804,11 @@
       <c r="D115" t="n">
         <v>17</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>+8/+15</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+5a(-4)/+10a(+1)</t>
-        </is>
+      <c r="E115" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -4212,15 +3834,11 @@
       <c r="D116" t="n">
         <v>17</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-16/+8</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+5a(-4)</t>
-        </is>
+      <c r="E116" t="n">
+        <v>16</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
@@ -4246,15 +3864,11 @@
       <c r="D117" t="n">
         <v>29</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E117" t="n">
+        <v>26</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4279,10 +3893,8 @@
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+36d</t>
-        </is>
+      <c r="F118" t="n">
+        <v>36</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4307,10 +3919,8 @@
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F119" t="n">
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4336,15 +3946,11 @@
       <c r="D120" t="n">
         <v>20</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="E120" t="n">
+        <v>15</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4369,10 +3975,8 @@
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+21d</t>
-        </is>
+      <c r="F121" t="n">
+        <v>21</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4398,15 +4002,11 @@
       <c r="D122" t="n">
         <v>19</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+18a(+9)</t>
-        </is>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
@@ -4452,15 +4052,11 @@
       <c r="D124" t="n">
         <v>21</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>0d</t>
-        </is>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4486,15 +4082,11 @@
       <c r="D125" t="n">
         <v>35</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>+2c</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+22d</t>
-        </is>
+      <c r="E125" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>22</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4521,10 +4113,8 @@
         <v>67</v>
       </c>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+11d</t>
-        </is>
+      <c r="F126" t="n">
+        <v>11</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
@@ -4550,15 +4140,11 @@
       <c r="D127" t="n">
         <v>15</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+19a(+9)</t>
-        </is>
+      <c r="E127" t="n">
+        <v>13</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4588,15 +4174,11 @@
       <c r="D128" t="n">
         <v>20</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+36a(+27)</t>
-        </is>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>36</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4623,10 +4205,8 @@
         <v>12</v>
       </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+19d(-7) / +17d(-13)</t>
-        </is>
+      <c r="F129" t="n">
+        <v>19</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4652,15 +4232,11 @@
       <c r="D130" t="n">
         <v>47</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-17c</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>-7d/-4c</t>
-        </is>
+      <c r="E130" t="n">
+        <v>17</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-7</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
@@ -4686,15 +4262,11 @@
       <c r="D131" t="n">
         <v>22</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-1d</t>
-        </is>
+      <c r="E131" t="n">
+        <v>10</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-1</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -4720,15 +4292,11 @@
       <c r="D132" t="n">
         <v>22</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-12/-7</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+25g</t>
-        </is>
+      <c r="E132" t="n">
+        <v>12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>25</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4754,15 +4322,11 @@
       <c r="D133" t="n">
         <v>15</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+33a(+23)</t>
-        </is>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>33</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4787,10 +4351,8 @@
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F134" t="n">
+        <v>1</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4835,10 +4397,8 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F136" t="n">
+        <v>1</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
@@ -4864,15 +4424,11 @@
       <c r="D137" t="n">
         <v>10</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+4s</t>
-        </is>
+      <c r="E137" t="n">
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
@@ -4898,15 +4454,11 @@
       <c r="D138" t="n">
         <v>18</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+35a(+25)</t>
-        </is>
+      <c r="E138" t="n">
+        <v>10</v>
+      </c>
+      <c r="F138" t="n">
+        <v>35</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -4928,15 +4480,11 @@
       <c r="D139" t="n">
         <v>14</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+1s</t>
-        </is>
+      <c r="E139" t="n">
+        <v>9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -4962,15 +4510,11 @@
       <c r="D140" t="n">
         <v>15</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+12g</t>
-        </is>
+      <c r="E140" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
@@ -4996,15 +4540,11 @@
       <c r="D141" t="n">
         <v>16</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+22a(+12)</t>
-        </is>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>22</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -5026,15 +4566,11 @@
       <c r="D142" t="n">
         <v>11</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E142" t="n">
+        <v>6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>

--- a/data/king-tekken-8-frame-data.xlsx
+++ b/data/king-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F3" t="n">
         <v>-2</v>
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -583,7 +583,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
@@ -613,7 +613,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F10" t="n">
         <v>12</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
@@ -843,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -931,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F17" t="n">
         <v>17</v>
@@ -981,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F19" t="n">
         <v>6</v>
@@ -1041,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
@@ -1103,7 +1103,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F27" t="n">
         <v>19</v>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>22</v>
@@ -1285,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F29" t="n">
         <v>10</v>
@@ -1315,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F30" t="n">
         <v>39</v>
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>14</v>
@@ -1529,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F38" t="n">
         <v>9</v>
@@ -1589,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F40" t="n">
         <v>-2</v>
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F41" t="n">
         <v>16</v>
@@ -1657,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F42" t="n">
         <v>49</v>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F43" t="n">
         <v>6</v>
@@ -1721,7 +1721,7 @@
         <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F44" t="n">
         <v>45</v>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F45" t="n">
         <v>5</v>
@@ -1809,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F47" t="n">
         <v>7</v>
@@ -1839,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F50" t="n">
         <v>7</v>
@@ -1929,7 +1929,7 @@
         <v>29</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F51" t="n">
         <v>-9</v>
@@ -1959,7 +1959,7 @@
         <v>29</v>
       </c>
       <c r="E52" t="n">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="F52" t="n">
         <v>7</v>
@@ -1989,7 +1989,7 @@
         <v>28</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F53" t="n">
         <v>16</v>
@@ -2019,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F54" t="n">
         <v>-4</v>
@@ -2071,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F56" t="n">
         <v>35</v>
@@ -2121,7 +2121,7 @@
         <v>25</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F58" t="n">
         <v>19</v>
@@ -2179,7 +2179,7 @@
         <v>23</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F60" t="n">
         <v>4</v>
@@ -2213,7 +2213,7 @@
         <v>29</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F61" t="n">
         <v>-3</v>
@@ -2275,7 +2275,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
@@ -2305,7 +2305,7 @@
         <v>20</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F64" t="n">
         <v>5</v>
@@ -2357,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F66" t="n">
         <v>4</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F67" t="n">
         <v>24</v>
@@ -2445,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F69" t="n">
         <v>6</v>
@@ -2475,7 +2475,7 @@
         <v>28</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F70" t="n">
         <v>18</v>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F72" t="n">
         <v>-3</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F73" t="n">
         <v>6</v>
@@ -2595,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F74" t="n">
         <v>6</v>
@@ -2629,7 +2629,7 @@
         <v>33</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F75" t="n">
         <v>-8</v>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>7</v>
@@ -2719,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F78" t="n">
         <v>2</v>
@@ -2749,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         <v>20</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F80" t="n">
         <v>17</v>
@@ -2809,7 +2809,7 @@
         <v>22</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F81" t="n">
         <v>2</v>
@@ -2839,7 +2839,7 @@
         <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F82" t="n">
         <v>27</v>
@@ -2869,7 +2869,7 @@
         <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -3003,7 +3003,7 @@
         <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F88" t="n">
         <v>-6</v>
@@ -3033,7 +3033,7 @@
         <v>32</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F89" t="n">
         <v>73</v>
@@ -3063,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F90" t="n">
         <v>56</v>
@@ -3093,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F91" t="n">
         <v>14</v>
@@ -3157,7 +3157,7 @@
         <v>21</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F93" t="n">
         <v>-19</v>
@@ -3217,7 +3217,7 @@
         <v>15</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F95" t="n">
         <v>14</v>
@@ -3279,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="E97" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>30</v>
@@ -3309,7 +3309,7 @@
         <v>28</v>
       </c>
       <c r="E98" t="n">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="F98" t="n">
         <v>32</v>
@@ -3373,7 +3373,7 @@
         <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F100" t="n">
         <v>7</v>
@@ -3477,7 +3477,7 @@
         <v>17</v>
       </c>
       <c r="E104" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F105" t="n">
         <v>39</v>
@@ -3565,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="E107" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
         <v>4</v>
@@ -3595,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F108" t="n">
         <v>-19</v>
@@ -3625,7 +3625,7 @@
         <v>22</v>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F109" t="n">
         <v>11</v>
@@ -3655,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="E110" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F111" t="n">
         <v>47</v>
@@ -3715,7 +3715,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F112" t="n">
         <v>12</v>
@@ -3745,7 +3745,7 @@
         <v>22</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F113" t="n">
         <v>21</v>
@@ -3775,7 +3775,7 @@
         <v>21</v>
       </c>
       <c r="E114" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F114" t="n">
         <v>-19</v>
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="E115" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F115" t="n">
         <v>5</v>
@@ -3835,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
@@ -3865,7 +3865,7 @@
         <v>29</v>
       </c>
       <c r="E117" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F117" t="n">
         <v>15</v>
@@ -3947,7 +3947,7 @@
         <v>20</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F122" t="n">
         <v>18</v>
@@ -4083,7 +4083,7 @@
         <v>35</v>
       </c>
       <c r="E125" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
         <v>22</v>
@@ -4141,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F127" t="n">
         <v>19</v>
@@ -4175,7 +4175,7 @@
         <v>20</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F128" t="n">
         <v>36</v>
@@ -4233,7 +4233,7 @@
         <v>47</v>
       </c>
       <c r="E130" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F130" t="n">
         <v>-7</v>
@@ -4263,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="E131" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F131" t="n">
         <v>-1</v>
@@ -4293,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="E132" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F132" t="n">
         <v>25</v>
@@ -4323,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F133" t="n">
         <v>33</v>
@@ -4425,7 +4425,7 @@
         <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F137" t="n">
         <v>4</v>
@@ -4455,7 +4455,7 @@
         <v>18</v>
       </c>
       <c r="E138" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F138" t="n">
         <v>35</v>
@@ -4481,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
         <v>15</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F140" t="n">
         <v>12</v>
@@ -4567,13 +4567,2337 @@
         <v>11</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F142" t="n">
         <v>5</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>f,hcf+2</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>50</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2 throw break. / If done quickly with all inputs, will "blue spark" and deal more damage. / Partially restores remaining Heat time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>f,n,d,df</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Duck high while moving forward. / Input f,n,d,df,f+(button) for instant ws moves. / 1st f cannot be held more than 10 frames.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>M,T</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>64</v>
+      </c>
+      <c r="D145" t="n">
+        <v>17</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Heat Smash / Floor Break / Shifts to JGR on block (without heat). / Beats all Power Crush armor, hits OTG.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>JGR.1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>21</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>39</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>In heat it becomes Tornado on grounded hit. / Partially uses remaining Heat time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>JGR.1+3/JGR.2+4</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>45</v>
+      </c>
+      <c r="D147" t="n">
+        <v>23</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Heat Engager / Namely RKO, cannot throw break. / Restores some Heat Gauge in Heat. / Cannot heat dash.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>JGR.2</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>26</v>
+      </c>
+      <c r="D148" t="n">
+        <v>18</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Chip damage on block. / In heat it becomes +6 on block, and forces crouching +18 near wall. / Partially uses remaining Heat time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>JGR.2+3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>M,T</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>35</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Throw when hit standing in front close range.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>JGR.3</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>30</v>
+      </c>
+      <c r="D150" t="n">
+        <v>22</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Balcony Break / Homing</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>JGR.4</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>20</v>
+      </c>
+      <c r="D151" t="n">
+        <v>20</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Forces Crouching on hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>JGS.1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>77</v>
+      </c>
+      <c r="D152" t="n">
+        <v>17</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>47</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Crumple on hit. / On block / hit / startup increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>JGS.2</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>55</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Forces Crouching on hit. / Forces Crouching on block from 3rd spin on. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>JGS.3</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>84</v>
+      </c>
+      <c r="D154" t="n">
+        <v>22</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Balcony Break / On block / hit increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>JGS.3,2+3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>M,M,T</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>119</v>
+      </c>
+      <c r="D155" t="n">
+        <v>21</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Throw when hit standing in front close range. / Doesn't combo from JGS.3, but trades with 10 frame jab. / Properties not changed with extra spins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>JGS.4</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>134</v>
+      </c>
+      <c r="D156" t="n">
+        <v>17</v>
+      </c>
+      <c r="E156" t="n">
+        <v>8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Balcony Break / Chip damage on block. / Guard Break (From 2nd spin on) / On block / hit increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>JGS.df+4</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>111</v>
+      </c>
+      <c r="D157" t="n">
+        <v>17</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Balcony Break / On block increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>d+3+4,4,4,4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>L,L,L,L,L</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>35</v>
+      </c>
+      <c r="D158" t="n">
+        <v>29</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Only available if 1st hit on CH. / Last 3 kicks are combo. / 5 kicks combo is impossible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>(Left side throw)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>40</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>36</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1 throw break. / Any throw on standing opponent's left side. / Side switch. Opponent recovers in FUFR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Leg Cross Hold.1+2</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>30</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Cannot throw break.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>R.df+1+2</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>55</v>
+      </c>
+      <c r="D161" t="n">
+        <v>20</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Armor all attacks and ignore throws. / Beat all armor including Rage Art. / Erases opponent's recoverable health on hit. / Damage distribution are 10,3,25,10,7, only adds 2 damage on CH.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>(Right side throw)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>42</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2 throw break. / Any throw on standing opponent's right side. / Opponent recovers in FUFT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ss2</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>19</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ss2+4,b/db</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Side Step that ducks high and covers long distance quickly, recovers in crouch. / Input by u/d,n,n+2+4,b/db.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ss3+4</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>50</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Deals a lot of chip damage on block. / Tracks side steps. / Side Step Left is 6 frames faster than SS Right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>u+1+2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>25</v>
+      </c>
+      <c r="D166" t="n">
+        <v>35</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>22</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tab 1+2 otherwise it becomes u+1+2(hold). / Forces Crouching on block. / Can also be done by ub+1+2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>u+1+2*</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>M!</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>40</v>
+      </c>
+      <c r="D167" t="n">
+        <v>67</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Unblockable mid. / Auto switch side if fly over opponent. / Can also be done by ub+1+2/.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ub+4</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>15</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>+33a(+23)</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Jump straight up knee, very short range.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>uf+1</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>21</v>
+      </c>
+      <c r="D169" t="n">
+        <v>20</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>36</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Homing Balcony Break / Can also be done by ub+1/u+1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>uf+1+2 / uf+1+2,B</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>30</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>1+2 throw break. / Hold b to throw backwards. / Damage becomes 15 on wall splat. / Opponent recovers in FUFT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>uf+2</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>35</v>
+      </c>
+      <c r="D171" t="n">
+        <v>47</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hits OTG. / u+2 to jump vertical, ub+2 to jump back. / Force Crouching on block. (ub+2 also on hit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>uf+3</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>23</v>
+      </c>
+      <c r="D172" t="n">
+        <v>22</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Can also be done by ub+3/u+3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>uf+3+4</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>23</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F173" t="n">
+        <v>25</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Tornado / Becomes -7 on block with chip damage if attack absorbed. / Shifts to JGR on hit (Hold b to cancel shift).</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>uf+4</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>13</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F174" t="n">
+        <v>33</v>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Can also be done by u+4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Ultimate Tackle.1+2</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>25</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>1+2 throw break / Can also shift into after 3rd hit of Ultimate Punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Ultimate Tackle.2,1,2,1</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>30</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Ultimate Tackle.3+4</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>20</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>3+4 throw break / Can also shift into after 3rd hit of Ultimate Punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>12</v>
+      </c>
+      <c r="D178" t="n">
+        <v>10</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4</v>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Acts like 11 frame attack. / Forces Standing on hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ws1+2</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>20</v>
+      </c>
+      <c r="D179" t="n">
+        <v>18</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F179" t="n">
+        <v>35</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>14</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Homing / Forces Standing on hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ws2,2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>36</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F181" t="n">
+        <v>12</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Homing / Balcony Break / Combo from 1st hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>20</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>22</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>20</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>f,hcf+2</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>50</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2 throw break. / If done quickly with all inputs, will "blue spark" and deal more damage. / Partially restores remaining Heat time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>f,n,d,df</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Duck high while moving forward. / Input f,n,d,df,f+(button) for instant ws moves. / 1st f cannot be held more than 10 frames.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>M,T</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>64</v>
+      </c>
+      <c r="D186" t="n">
+        <v>17</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Heat Smash / Floor Break / Shifts to JGR on block (without heat). / Beats all Power Crush armor, hits OTG.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>JGR.1</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>21</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>39</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>In heat it becomes Tornado on grounded hit. / Partially uses remaining Heat time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>JGR.1+3/JGR.2+4</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>45</v>
+      </c>
+      <c r="D188" t="n">
+        <v>23</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Heat Engager / Namely RKO, cannot throw break. / Restores some Heat Gauge in Heat. / Cannot heat dash.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>JGR.2</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>26</v>
+      </c>
+      <c r="D189" t="n">
+        <v>18</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Chip damage on block. / In heat it becomes +6 on block, and forces crouching +18 near wall. / Partially uses remaining Heat time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>JGR.2+3</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>M,T</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>35</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Throw when hit standing in front close range.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>JGR.3</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>30</v>
+      </c>
+      <c r="D191" t="n">
+        <v>22</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F191" t="n">
+        <v>11</v>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Balcony Break / Homing</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>JGR.4</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>20</v>
+      </c>
+      <c r="D192" t="n">
+        <v>20</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Forces Crouching on hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>JGS.1</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>77</v>
+      </c>
+      <c r="D193" t="n">
+        <v>17</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>47</v>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Crumple on hit. / On block / hit / startup increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>JGS.2</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>55</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>12</v>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Forces Crouching on hit. / Forces Crouching on block from 3rd spin on. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>JGS.3</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>84</v>
+      </c>
+      <c r="D195" t="n">
+        <v>22</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>21</v>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Balcony Break / On block / hit increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>JGS.3,2+3</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>M,M,T</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>119</v>
+      </c>
+      <c r="D196" t="n">
+        <v>21</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Throw when hit standing in front close range. / Doesn't combo from JGS.3, but trades with 10 frame jab. / Properties not changed with extra spins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>JGS.4</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>134</v>
+      </c>
+      <c r="D197" t="n">
+        <v>17</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Balcony Break / Chip damage on block. / Guard Break (From 2nd spin on) / On block / hit increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>JGS.df+4</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>111</v>
+      </c>
+      <c r="D198" t="n">
+        <v>17</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Balcony Break / On block increases up to 2nd spin. / Damage increase up to 3rd spin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>d+3+4,4,4,4</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>L,L,L,L,L</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>35</v>
+      </c>
+      <c r="D199" t="n">
+        <v>29</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Only available if 1st hit on CH. / Last 3 kicks are combo. / 5 kicks combo is impossible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>(Left side throw)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>40</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>36</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>1 throw break. / Any throw on standing opponent's left side. / Side switch. Opponent recovers in FUFR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Leg Cross Hold.1+2</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>30</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Cannot throw break.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R.df+1+2</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>55</v>
+      </c>
+      <c r="D202" t="n">
+        <v>20</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Armor all attacks and ignore throws. / Beat all armor including Rage Art. / Erases opponent's recoverable health on hit. / Damage distribution are 10,3,25,10,7, only adds 2 damage on CH.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>(Right side throw)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>42</v>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2 throw break. / Any throw on standing opponent's right side. / Opponent recovers in FUFT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ss2</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>25</v>
+      </c>
+      <c r="D204" t="n">
+        <v>19</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>18</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ss2+4,b/db</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Side Step that ducks high and covers long distance quickly, recovers in crouch. / Input by u/d,n,n+2+4,b/db.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ss3+4</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>50</v>
+      </c>
+      <c r="D206" t="n">
+        <v>21</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Deals a lot of chip damage on block. / Tracks side steps. / Side Step Left is 6 frames faster than SS Right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>u+1+2</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>25</v>
+      </c>
+      <c r="D207" t="n">
+        <v>35</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22</v>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Tab 1+2 otherwise it becomes u+1+2(hold). / Forces Crouching on block. / Can also be done by ub+1+2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>u+1+2*</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>M!</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>40</v>
+      </c>
+      <c r="D208" t="n">
+        <v>67</v>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>11</v>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Unblockable mid. / Auto switch side if fly over opponent. / Can also be done by ub+1+2/.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ub+4</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>15</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>+33a(+23)</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Jump straight up knee, very short range.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>uf+1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>21</v>
+      </c>
+      <c r="D210" t="n">
+        <v>20</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F210" t="n">
+        <v>36</v>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Homing Balcony Break / Can also be done by ub+1/u+1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>uf+1+2 / uf+1+2,B</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>30</v>
+      </c>
+      <c r="D211" t="n">
+        <v>12</v>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>19</v>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>1+2 throw break. / Hold b to throw backwards. / Damage becomes 15 on wall splat. / Opponent recovers in FUFT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>uf+2</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>35</v>
+      </c>
+      <c r="D212" t="n">
+        <v>47</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Hits OTG. / u+2 to jump vertical, ub+2 to jump back. / Force Crouching on block. (ub+2 also on hit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>uf+3</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>23</v>
+      </c>
+      <c r="D213" t="n">
+        <v>22</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Can also be done by ub+3/u+3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>uf+3+4</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>23</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F214" t="n">
+        <v>25</v>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Tornado / Becomes -7 on block with chip damage if attack absorbed. / Shifts to JGR on hit (Hold b to cancel shift).</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>uf+4</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>13</v>
+      </c>
+      <c r="D215" t="n">
+        <v>15</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F215" t="n">
+        <v>33</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Can also be done by u+4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Ultimate Tackle.1+2</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>25</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>1+2 throw break / Can also shift into after 3rd hit of Ultimate Punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Ultimate Tackle.2,1,2,1</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>30</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ultimate Tackle.3+4</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>20</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>3+4 throw break / Can also shift into after 3rd hit of Ultimate Punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>12</v>
+      </c>
+      <c r="D219" t="n">
+        <v>10</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4</v>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Acts like 11 frame attack. / Forces Standing on hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ws1+2</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>20</v>
+      </c>
+      <c r="D220" t="n">
+        <v>18</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F220" t="n">
+        <v>35</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>11</v>
+      </c>
+      <c r="D221" t="n">
+        <v>14</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Homing / Forces Standing on hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ws2,2</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>36</v>
+      </c>
+      <c r="D222" t="n">
+        <v>15</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F222" t="n">
+        <v>12</v>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Homing / Balcony Break / Combo from 1st hit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>20</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>22</v>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>20</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F224" t="n">
+        <v>5</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
